--- a/selenium/test/data/Topups_FI_Sample.xlsx
+++ b/selenium/test/data/Topups_FI_Sample.xlsx
@@ -7,6 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Topup" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FIEOD" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Topup01042018" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -14,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Type</t>
   </si>
@@ -67,19 +69,186 @@
     <t>MASBNK</t>
   </si>
   <si>
+    <t>0204201812365904</t>
+  </si>
+  <si>
+    <t>ECA</t>
+  </si>
+  <si>
+    <t>DW001659</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;EPGFIServices&gt;
+    &lt;Header&gt;
+        &lt;Version&gt;1.0&lt;/Version&gt;
+        &lt;SrvType&gt;PMTNP&lt;/SrvType&gt;
+        &lt;SrvName&gt;Account Top Up&lt;/SrvName&gt;
+        &lt;SrcApp&gt;MASBNK&lt;/SrcApp&gt;
+        &lt;TargetApp&gt;noqodi&lt;/TargetApp&gt;
+        &lt;Timestamp&gt;02/04/2018 16:24:28&lt;/Timestamp&gt;
+        &lt;SrcMsgId&gt;0204201812365904&lt;/SrcMsgId&gt;
+        &lt;TrackingId&gt;0204201812365904&lt;/TrackingId&gt;
+        &lt;OrgId&gt;MASBNK&lt;/OrgId&gt;
+    &lt;/Header&gt;
+    &lt;Body&gt;
+        &lt;SrvRes&gt;
+            &lt;ExceptionDetails&gt;
+                &lt;DateTime&gt;02/04/2018 16:24:28&lt;/DateTime&gt;
+                &lt;Status&gt;S&lt;/Status&gt;
+                &lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;
+                &lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;
+            &lt;/ExceptionDetails&gt;
+            &lt;PaymentMessageRes&gt;
+                &lt;Payment&gt;
+                    &lt;EPGTransactionID&gt;6615285&lt;/EPGTransactionID&gt;
+                    &lt;TranStatus&gt;S&lt;/TranStatus&gt;
+                    &lt;PaymentMode&gt;CSH&lt;/PaymentMode&gt;
+                    &lt;Amount&gt;100.00&lt;/Amount&gt;
+                    &lt;Currency&gt;AED&lt;/Currency&gt;
+                &lt;/Payment&gt;
+            &lt;/PaymentMessageRes&gt;
+        &lt;/SrvRes&gt;
+    &lt;/Body&gt;
+&lt;/EPGFIServices&gt;
+</t>
+  </si>
+  <si>
+    <t>EPG-PMT-000</t>
+  </si>
+  <si>
+    <t>6615285</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>&lt;Transaction&gt;
+    &lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;
+    &lt;FITransactionID&gt;0204201812365904&lt;/FITransactionID&gt;
+    &lt;EPGTransactionID&gt;6615285&lt;/EPGTransactionID&gt;
+    &lt;PaymentDate&gt;02/04/2018&lt;/PaymentDate&gt;
+    &lt;PaymentRealizationDate&gt;02/04/2018&lt;/PaymentRealizationDate&gt;
+    &lt;PayAmount&gt;100&lt;/PayAmount&gt;
+    &lt;PayCurrency&gt;AED&lt;/PayCurrency&gt;
+    &lt;Status&gt;S&lt;/Status&gt;
+    &lt;ErrorCode&gt;000&lt;/ErrorCode&gt;
+    &lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;
+&lt;/Transaction&gt;</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0204201812365905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
+&lt;EPGFIServices&gt;
+    &lt;Header&gt;
+        &lt;Version&gt;1.0&lt;/Version&gt;
+        &lt;SrvType&gt;PMTNP&lt;/SrvType&gt;
+        &lt;SrvName&gt;Account Top Up&lt;/SrvName&gt;
+        &lt;SrcApp&gt;MASBNK&lt;/SrcApp&gt;
+        &lt;TargetApp&gt;noqodi&lt;/TargetApp&gt;
+        &lt;Timestamp&gt;02/04/2018 16:24:35&lt;/Timestamp&gt;
+        &lt;SrcMsgId&gt;0204201812365905&lt;/SrcMsgId&gt;
+        &lt;TrackingId&gt;0204201812365905&lt;/TrackingId&gt;
+        &lt;OrgId&gt;MASBNK&lt;/OrgId&gt;
+    &lt;/Header&gt;
+    &lt;Body&gt;
+        &lt;SrvRes&gt;
+            &lt;ExceptionDetails&gt;
+                &lt;DateTime&gt;02/04/2018 16:24:35&lt;/DateTime&gt;
+                &lt;Status&gt;S&lt;/Status&gt;
+                &lt;ErrorCode&gt;EPG-PMT-000&lt;/ErrorCode&gt;
+                &lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;
+            &lt;/ExceptionDetails&gt;
+            &lt;PaymentMessageRes&gt;
+                &lt;Payment&gt;
+                    &lt;EPGTransactionID&gt;6615286&lt;/EPGTransactionID&gt;
+                    &lt;TranStatus&gt;S&lt;/TranStatus&gt;
+                    &lt;PaymentMode&gt;CSH&lt;/PaymentMode&gt;
+                    &lt;Amount&gt;100.00&lt;/Amount&gt;
+                    &lt;Currency&gt;AED&lt;/Currency&gt;
+                &lt;/Payment&gt;
+            &lt;/PaymentMessageRes&gt;
+        &lt;/SrvRes&gt;
+    &lt;/Body&gt;
+&lt;/EPGFIServices&gt;
+</t>
+  </si>
+  <si>
+    <t>6615286</t>
+  </si>
+  <si>
+    <t>&lt;Transaction&gt;
+    &lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;
+    &lt;FITransactionID&gt;0204201812365905&lt;/FITransactionID&gt;
+    &lt;EPGTransactionID&gt;6615286&lt;/EPGTransactionID&gt;
+    &lt;PaymentDate&gt;02/04/2018&lt;/PaymentDate&gt;
+    &lt;PaymentRealizationDate&gt;02/04/2018&lt;/PaymentRealizationDate&gt;
+    &lt;PayAmount&gt;100&lt;/PayAmount&gt;
+    &lt;PayCurrency&gt;AED&lt;/PayCurrency&gt;
+    &lt;Status&gt;S&lt;/Status&gt;
+    &lt;ErrorCode&gt;000&lt;/ErrorCode&gt;
+    &lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;
+&lt;/Transaction&gt;</t>
+  </si>
+  <si>
+    <t>TotalTransactions</t>
+  </si>
+  <si>
+    <t>TotalAmount</t>
+  </si>
+  <si>
+    <t>FIEOD</t>
+  </si>
+  <si>
+    <t>204201812365905</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>&lt;Transaction&gt;
+    &lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;
+    &lt;FITransactionID&gt;0204201812365904&lt;/FITransactionID&gt;
+    &lt;EPGTransactionID&gt;6615285&lt;/EPGTransactionID&gt;
+    &lt;PaymentDate&gt;02/04/2018&lt;/PaymentDate&gt;
+    &lt;PaymentRealizationDate&gt;02/04/2018&lt;/PaymentRealizationDate&gt;
+    &lt;PayAmount&gt;100&lt;/PayAmount&gt;
+    &lt;PayCurrency&gt;AED&lt;/PayCurrency&gt;
+    &lt;Status&gt;S&lt;/Status&gt;
+    &lt;ErrorCode&gt;000&lt;/ErrorCode&gt;
+    &lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;
+&lt;/Transaction&gt;&lt;Transaction&gt;
+    &lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;
+    &lt;FITransactionID&gt;0204201812365905&lt;/FITransactionID&gt;
+    &lt;EPGTransactionID&gt;6615286&lt;/EPGTransactionID&gt;
+    &lt;PaymentDate&gt;02/04/2018&lt;/PaymentDate&gt;
+    &lt;PaymentRealizationDate&gt;02/04/2018&lt;/PaymentRealizationDate&gt;
+    &lt;PayAmount&gt;100&lt;/PayAmount&gt;
+    &lt;PayCurrency&gt;AED&lt;/PayCurrency&gt;
+    &lt;Status&gt;S&lt;/Status&gt;
+    &lt;ErrorCode&gt;000&lt;/ErrorCode&gt;
+    &lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;
+&lt;/Transaction&gt;</t>
+  </si>
+  <si>
     <t>0104201812365901</t>
   </si>
   <si>
-    <t>ECA</t>
-  </si>
-  <si>
     <t>DW100200</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>AED</t>
   </si>
   <si>
     <t>01/04/2018</t>
@@ -118,9 +287,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>&lt;Transaction&gt;
     &lt;PaymentMode&gt;ECA&lt;/PaymentMode&gt;
     &lt;FITransactionID&gt;0104201812365901&lt;/FITransactionID&gt;
@@ -133,12 +299,6 @@
     &lt;ErrorCode&gt;000&lt;/ErrorCode&gt;
     &lt;ErrorDescription&gt;Success&lt;/ErrorDescription&gt;
 &lt;/Transaction&gt;</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>DW001659</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;?xml version="1.0" encoding="UTF-8" standalone="yes"?&gt;
@@ -228,9 +388,6 @@
     &lt;/Body&gt;
 &lt;/EPGFIServices&gt;
 </t>
-  </si>
-  <si>
-    <t>EPG-PMT-000</t>
   </si>
   <si>
     <t>6615185</t>
@@ -567,10 +724,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
@@ -646,7 +803,7 @@
       <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -667,7 +824,7 @@
       <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N2" t="s">
@@ -685,13 +842,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>20</v>
@@ -706,16 +863,273 @@
         <v>30</v>
       </c>
       <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
         <v>31</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="0.36875" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.6090277777777779"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0">
+    <oddHeader>&amp;C&amp;P</oddHeader>
+    <oddFooter>&amp;C&amp;F</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="17.28515625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="7" min="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="13.140625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="15.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="19.5703125"/>
+    <col customWidth="1" max="4" min="4" width="17.140625"/>
+    <col customWidth="1" max="5" min="5" width="13.140625"/>
+    <col customWidth="1" max="8" min="8" width="12.28515625"/>
+    <col customWidth="1" max="9" min="9" width="16.5703125"/>
+    <col customWidth="1" max="10" min="10" width="10.5703125"/>
+    <col customWidth="1" max="11" min="11" width="14.7109375"/>
+    <col customWidth="1" max="15" min="15" width="10.85546875"/>
+    <col customWidth="1" max="28" min="28" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -723,19 +1137,19 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>20</v>
@@ -744,22 +1158,22 @@
         <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/selenium/test/data/Topups_FI_Sample.xlsx
+++ b/selenium/test/data/Topups_FI_Sample.xlsx
@@ -962,12 +962,9 @@
       <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
       <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
